--- a/data/income_statement/3digits/total/265_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/265_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>265-Manufacture of instruments and appliances for measuring, testing and navigation; watches and clocks</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>265-Manufacture of instruments and appliances for measuring, testing and navigation; watches and clocks</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1811578.42557</v>
@@ -956,7 +862,7 @@
         <v>2195437.92676</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2841888.483810001</v>
+        <v>2841888.48381</v>
       </c>
       <c r="F5" s="47" t="n">
         <v>3325841.62275</v>
@@ -965,28 +871,33 @@
         <v>4121610.150390001</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5002148.34617</v>
+        <v>5002297.63907</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>5163795.9662</v>
+        <v>5924820.876170001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>7394861.17045</v>
+        <v>7394861.17046</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>9346396.75807</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>14080186.48371</v>
+        <v>14083119.90641</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>20718445.24698</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>20738124.17515</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>24083014.616</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1536117.81404</v>
@@ -1001,31 +912,36 @@
         <v>2585654.99271</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3231099.717250001</v>
+        <v>3231099.71725</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3503740.96819</v>
+        <v>3503890.26109</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>4065621.80338</v>
+        <v>4443684.251820001</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>6039078.787810001</v>
+        <v>6039078.787819999</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>7550395.67229</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>11728963.94537</v>
+        <v>11729022.16502</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>17128089.14136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17141773.40004</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20111859.626</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>241005.04475</v>
@@ -1037,16 +953,16 @@
         <v>485665.8443</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>725779.3374399999</v>
+        <v>725779.33744</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>875189.29992</v>
+        <v>875189.2999199999</v>
       </c>
       <c r="H7" s="48" t="n">
         <v>1477956.60299</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1067090.32047</v>
+        <v>1449911.05143</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>1322967.31194</v>
@@ -1055,16 +971,21 @@
         <v>1749954.97785</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2283177.489</v>
+        <v>2286051.19375</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>3494192.52334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3500039.02636</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>3879072.056</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>34455.56678</v>
@@ -1085,7 +1006,7 @@
         <v>20450.77499</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>31083.84235</v>
+        <v>31225.57292</v>
       </c>
       <c r="J8" s="48" t="n">
         <v>32815.0707</v>
@@ -1094,16 +1015,21 @@
         <v>46046.10793</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>68045.04934</v>
+        <v>68046.54764</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>96163.58228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>96311.74875</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>92082.93399999999</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>29476.37443</v>
@@ -1115,16 +1041,16 @@
         <v>26926.84463</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>53249.08182</v>
+        <v>53249.08181999999</v>
       </c>
       <c r="G9" s="47" t="n">
         <v>73129.25946</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>79481.15412000001</v>
+        <v>79481.33104</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>126605.88155</v>
+        <v>126659.54655</v>
       </c>
       <c r="J9" s="47" t="n">
         <v>141252.74842</v>
@@ -1133,22 +1059,27 @@
         <v>184162.17927</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>296120.6540399999</v>
+        <v>296120.65404</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>781380.9701700001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>781865.0936200001</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>292452.433</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>22425.10791</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>9852.91748</v>
+        <v>9852.917479999998</v>
       </c>
       <c r="E10" s="48" t="n">
         <v>13434.79221</v>
@@ -1157,34 +1088,39 @@
         <v>40420.95356999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>58119.67289000001</v>
+        <v>58119.67289</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>41866.34164</v>
+        <v>41866.51856</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>68314.15106</v>
+        <v>68367.81606</v>
       </c>
       <c r="J10" s="48" t="n">
         <v>66348.68979</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>81086.6973</v>
+        <v>81086.69729999999</v>
       </c>
       <c r="L10" s="48" t="n">
         <v>262901.40213</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>754535.46638</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>755006.1074699999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>262475.687</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>5977.741210000001</v>
+        <v>5977.74121</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>12011.29294</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>22969.13953</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>23894.535</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1073.52531</v>
@@ -1253,13 +1194,18 @@
         <v>5681.96579</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>3876.36426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>3889.84662</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>6082.211</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1782102.05114</v>
@@ -1277,28 +1223,33 @@
         <v>4048480.89093</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>4922667.192050001</v>
+        <v>4922816.30803</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>5037190.08465</v>
+        <v>5798161.32962</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>7253608.422030001</v>
+        <v>7253608.42204</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>9162234.578799998</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>13784065.82967</v>
+        <v>13786999.25237</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>19937064.27681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>19956259.08153</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>23790562.183</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1206207.28147</v>
@@ -1316,10 +1267,10 @@
         <v>3019840.91822</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3591691.64901</v>
+        <v>3591860.48889</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3666362.98915</v>
+        <v>4055565.44179</v>
       </c>
       <c r="J14" s="47" t="n">
         <v>5070862.7685</v>
@@ -1328,19 +1279,24 @@
         <v>6190827.85852</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>8817042.9451</v>
+        <v>8817413.341739999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>12963594.18628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>12979061.05556</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>14625864.167</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>874908.1033300001</v>
+        <v>874908.10333</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>1077774.69063</v>
@@ -1358,7 +1314,7 @@
         <v>2696210.41238</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2983967.04742</v>
+        <v>3196563.80958</v>
       </c>
       <c r="J15" s="48" t="n">
         <v>3853506.52678</v>
@@ -1367,22 +1323,27 @@
         <v>4672805.98667</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>6592714.315099999</v>
+        <v>6592714.69356</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>10151282.6621</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>10160316.28075</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>10498936.079</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>61478.89412999999</v>
+        <v>61478.89413</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>94567.79085</v>
+        <v>94567.79084999999</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>132330.76159</v>
@@ -1394,10 +1355,10 @@
         <v>164327.58455</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>202445.18594</v>
+        <v>202472.83533</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>162926.83558</v>
+        <v>163520.4446</v>
       </c>
       <c r="J16" s="48" t="n">
         <v>192546.75478</v>
@@ -1406,22 +1367,27 @@
         <v>295591.95261</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>474030.07614</v>
+        <v>474054.16754</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>597550.64602</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>600018.09263</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1122094.644</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>250375.19493</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>321414.1654899999</v>
+        <v>321414.16549</v>
       </c>
       <c r="E17" s="48" t="n">
         <v>440204.51235</v>
@@ -1430,31 +1396,36 @@
         <v>528289.5052200001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>737102.3787799998</v>
+        <v>737102.3787800001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>544406.38494</v>
+        <v>544547.5754300001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>445430.68967</v>
+        <v>621384.65061</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>836604.0147800001</v>
+        <v>836604.01478</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>1016910.57865</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1507135.25584</v>
+        <v>1507481.18262</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1806365.89315</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1807938.6365</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>2540429.993</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>19445.08908</v>
@@ -1475,7 +1446,7 @@
         <v>148629.66575</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>74038.41648</v>
+        <v>74096.537</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>188205.47216</v>
@@ -1487,13 +1458,18 @@
         <v>243163.29802</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>408394.98501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>410788.04568</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>464403.451</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>575894.76967</v>
@@ -1502,37 +1478,42 @@
         <v>609190.35526</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>836700.7743599999</v>
+        <v>836700.77436</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>995738.61993</v>
+        <v>995738.6199299999</v>
       </c>
       <c r="G19" s="47" t="n">
         <v>1028639.97271</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1330975.54304</v>
+        <v>1330955.81914</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1370827.0955</v>
+        <v>1742595.88783</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2182745.65353</v>
+        <v>2182745.65354</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>2971406.72028</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4967022.88457</v>
+        <v>4969585.910630001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6973470.090530001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6977198.02597</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>9164698.016000001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>246043.43773</v>
@@ -1550,10 +1531,10 @@
         <v>519100.87064</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>640334.65448</v>
+        <v>640414.7721299999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>645389.98404</v>
+        <v>755805.14319</v>
       </c>
       <c r="J20" s="47" t="n">
         <v>832340.3433600001</v>
@@ -1562,16 +1543,21 @@
         <v>1085355.82812</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1383836.15943</v>
+        <v>1388011.18588</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1779504.46914</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1782927.62005</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2387712.166</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>36507.43814</v>
@@ -1583,7 +1569,7 @@
         <v>66827.56752</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>92243.79424999999</v>
+        <v>92243.79425000001</v>
       </c>
       <c r="G21" s="48" t="n">
         <v>93852.15271000001</v>
@@ -1592,7 +1578,7 @@
         <v>126847.28122</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>114822.32541</v>
+        <v>137928.16922</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>151451.86132</v>
@@ -1601,19 +1587,24 @@
         <v>176485.65006</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>237357.30912</v>
+        <v>237858.29839</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>356702.5184000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>357209.29422</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>498388.324</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>75720.28713</v>
+        <v>75720.28713000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>80237.17303999999</v>
@@ -1628,28 +1619,33 @@
         <v>145585.87332</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>178950.09325</v>
+        <v>178970.92815</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>223578.78272</v>
+        <v>247389.77578</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>269599.11217</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>394921.3160700001</v>
+        <v>394921.31607</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>488333.8250900001</v>
+        <v>488336.69197</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>595318.57687</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>596026.4786</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>878437.349</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>133815.71246</v>
@@ -1667,28 +1663,33 @@
         <v>279662.84461</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>334537.28001</v>
+        <v>334596.56276</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>306988.87591</v>
+        <v>370487.19819</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>411289.3698699999</v>
+        <v>411289.36987</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>513948.86199</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>658145.0252200001</v>
+        <v>661816.19552</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>827483.37387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>829691.8472300001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1010886.493</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>329851.33194</v>
@@ -1700,34 +1701,39 @@
         <v>477234.36047</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>531580.7912699999</v>
+        <v>531580.79127</v>
       </c>
       <c r="G24" s="47" t="n">
         <v>509539.10207</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>690640.8885600001</v>
+        <v>690541.04701</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>725437.11146</v>
+        <v>986790.74464</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1350405.31017</v>
+        <v>1350405.31018</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>1886050.89216</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>3583186.72514</v>
+        <v>3581574.72475</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>5193965.62139</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>5194270.40592</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>6776985.85</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>572455.2254700001</v>
@@ -1739,16 +1745,16 @@
         <v>957872.28286</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>890386.2372600001</v>
+        <v>890386.23726</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>695612.1865899999</v>
+        <v>695612.1865900001</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>985117.8344199999</v>
+        <v>985124.8995000001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>977176.57822</v>
+        <v>1413970.77972</v>
       </c>
       <c r="J25" s="47" t="n">
         <v>1358949.31641</v>
@@ -1757,16 +1763,21 @@
         <v>3554309.77394</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>11032445.1559</v>
+        <v>11034168.84486</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>6156622.06305</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6157264.908620001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>11443638.87</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>83.19508999999999</v>
@@ -1775,7 +1786,7 @@
         <v>2708.90408</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4075.11593</v>
+        <v>4075.115929999999</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>7332.331230000001</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>6541.0322</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>6985.705</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>704.46</v>
@@ -1838,13 +1854,18 @@
         <v>18734.36695</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>48846.85449</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>48846.85449000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>27566.599</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>19583.48569</v>
@@ -1856,16 +1877,16 @@
         <v>37888.19922</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>54826.65270000001</v>
+        <v>54826.6527</v>
       </c>
       <c r="G28" s="48" t="n">
         <v>39400.68618</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>25466.23231000001</v>
+        <v>25466.23231</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>19933.8484</v>
+        <v>28438.914</v>
       </c>
       <c r="J28" s="48" t="n">
         <v>40382.24709</v>
@@ -1874,16 +1895,21 @@
         <v>58799.07885</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>408949.1273</v>
+        <v>408949.1272999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>301404.51573</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>301622.65035</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>117492.992</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.55</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>641.2982</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>9.326000000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>1651.99973</v>
@@ -1943,7 +1974,7 @@
         <v>2388.39999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2570.978880000001</v>
+        <v>2570.97888</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>3719.70899</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>13686.20656</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>65897.227</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>31293.59489</v>
@@ -1973,7 +2009,7 @@
         <v>267.14678</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2773.983000000001</v>
+        <v>2773.983</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>7.45276</v>
@@ -1996,11 +2032,16 @@
       <c r="M31" s="48" t="n">
         <v>1025.05125</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1841.099</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>234640.13275</v>
@@ -2015,13 +2056,13 @@
         <v>453955.0864</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>613679.28003</v>
+        <v>613679.2800300001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>936298.99416</v>
+        <v>936300.1332899999</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>775169.3735600001</v>
+        <v>1203129.49708</v>
       </c>
       <c r="J32" s="48" t="n">
         <v>1271454.22064</v>
@@ -2030,16 +2071,21 @@
         <v>3447654.29321</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>10512735.07282</v>
+        <v>10514444.08216</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>5676138.2106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>5676486.68608</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>11154554.589</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>246.2226</v>
@@ -2057,7 +2103,7 @@
         <v>2622.01732</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>5950.177979999999</v>
+        <v>5950.17798</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>3665.98378</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>225.06945</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>332.955</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>14.66183</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>284236.92289</v>
@@ -2126,7 +2182,7 @@
         <v>308054.4519099999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>336526.8573499999</v>
+        <v>336526.85735</v>
       </c>
       <c r="F35" s="48" t="n">
         <v>363525.23892</v>
@@ -2135,10 +2191,10 @@
         <v>16973.37967</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>7647.490199999999</v>
+        <v>7653.41615</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>28373.81554</v>
+        <v>28702.82792</v>
       </c>
       <c r="J35" s="48" t="n">
         <v>19267.5624</v>
@@ -2147,37 +2203,42 @@
         <v>23154.06902</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>59127.57093</v>
+        <v>59142.25055</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>108113.82457</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>108190.06004</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>68958.378</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>535569.7389699999</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>655143.5269200001</v>
+        <v>655143.52692</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>1069149.41827</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>806358.5162599999</v>
+        <v>806358.5162600001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>888529.31704</v>
+        <v>888529.3170400001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>1038202.48764</v>
+        <v>1038202.49761</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1200659.14515</v>
+        <v>1670002.65532</v>
       </c>
       <c r="J36" s="47" t="n">
         <v>1661896.24896</v>
@@ -2186,16 +2247,21 @@
         <v>3768162.19931</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>11416748.39472</v>
+        <v>11417490.95936</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6248014.85562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6248126.57526</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>12251879.53</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>931.6840999999999</v>
@@ -2216,7 +2282,7 @@
         <v>1587.62195</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>602.3366599999999</v>
+        <v>602.3366600000001</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>1077.95999</v>
@@ -2230,11 +2296,16 @@
       <c r="M37" s="48" t="n">
         <v>3486.14121</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1627.851</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>21162.66567</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>179279.75717</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>273158.411</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>3.5725</v>
@@ -2308,17 +2384,22 @@
       <c r="M39" s="48" t="n">
         <v>26.244</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>698.074</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>234762.72145</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>339973.4974599999</v>
+        <v>339973.49746</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>686976.32576</v>
@@ -2330,10 +2411,10 @@
         <v>851704.0289</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>990068.40535</v>
+        <v>990068.41532</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1133999.24081</v>
+        <v>1600962.85209</v>
       </c>
       <c r="J40" s="48" t="n">
         <v>1591507.45534</v>
@@ -2342,16 +2423,21 @@
         <v>3693029.55854</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>11323416.05816</v>
+        <v>11324158.6228</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6061238.047040001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6061349.76668</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>11952463.614</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>237.2494</v>
@@ -2366,7 +2452,7 @@
         <v>190.8119</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>4360.430340000001</v>
+        <v>4360.43034</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>5424.16491</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>560.69175</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>227.372</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.85029</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>278471.84585</v>
@@ -2447,16 +2543,16 @@
         <v>1352.91023</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>5791.717790000001</v>
+        <v>5791.71779</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>3290.79384</v>
+        <v>5670.69273</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>3841.22213</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>6255.989200000001</v>
+        <v>6255.9892</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>9843.499099999999</v>
@@ -2464,11 +2560,16 @@
       <c r="M43" s="48" t="n">
         <v>3423.12416</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="48" t="n">
+        <v>23704.208</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>36496.71535</v>
@@ -2480,34 +2581,39 @@
         <v>62011.60322999999</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>49573.47845999999</v>
+        <v>49573.47846</v>
       </c>
       <c r="G44" s="47" t="n">
         <v>86864.15362000001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>71245.06881</v>
+        <v>71245.86096999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>111600.74711</v>
+        <v>111968.93999</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>95746.79921</v>
+        <v>95746.79921000001</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>126175.09746</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>244928.96216</v>
+        <v>244933.71626</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>220864.62093</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>221136.41194</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>287424.134</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>25523.56921</v>
@@ -2525,10 +2631,10 @@
         <v>48639.94905</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>61853.81679</v>
+        <v>61854.60895</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>81570.74134000001</v>
+        <v>81649.12586</v>
       </c>
       <c r="J45" s="48" t="n">
         <v>65112.49801</v>
@@ -2537,16 +2643,21 @@
         <v>88653.45744</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>170032.77692</v>
+        <v>170037.53102</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>196634.97761</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>196906.76862</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>240104.717</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>10973.14614</v>
@@ -2555,7 +2666,7 @@
         <v>6890.44802</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>30589.04168</v>
+        <v>30589.04167999999</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>7933.48791</v>
@@ -2567,7 +2678,7 @@
         <v>9391.25202</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>30030.00577</v>
+        <v>30319.81413</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>30634.3012</v>
@@ -2581,11 +2692,16 @@
       <c r="M46" s="48" t="n">
         <v>24229.64332</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>47319.417</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>330240.10309</v>
@@ -2597,34 +2713,39 @@
         <v>303945.62183</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>566035.0338100001</v>
+        <v>566035.0338099999</v>
       </c>
       <c r="G47" s="47" t="n">
         <v>229757.818</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>566311.1665299999</v>
+        <v>566217.58793</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>390353.7974200001</v>
+        <v>618789.9290499999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>951711.5784099998</v>
+        <v>951711.5784199999</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1546023.36933</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>2953954.52416</v>
+        <v>2953318.89399</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4881708.20789</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4882272.32734</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>5681321.056</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>9039.09583</v>
@@ -2636,34 +2757,39 @@
         <v>15926.93792</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>40010.26048999999</v>
+        <v>40010.26049</v>
       </c>
       <c r="G48" s="47" t="n">
         <v>27047.55763</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26425.1973</v>
+        <v>26425.58559</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>56101.52223</v>
+        <v>63780.30647</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>47636.84023</v>
+        <v>47636.84022999999</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>60683.01764</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>154122.12189</v>
+        <v>154151.62388</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>101478.09013</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>101528.53591</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>155745.224</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>348.74429</v>
@@ -2684,7 +2810,7 @@
         <v>2219.6275</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>335.5340199999999</v>
+        <v>1143.56477</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>2896.8417</v>
@@ -2698,14 +2824,19 @@
       <c r="M49" s="48" t="n">
         <v>3663.74375</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>38408.639</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>8690.351540000001</v>
+        <v>8690.35154</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>11447.21134</v>
@@ -2720,10 +2851,10 @@
         <v>26888.3002</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>24205.5698</v>
+        <v>24205.95809</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>55765.98821000001</v>
+        <v>62636.74170000001</v>
       </c>
       <c r="J50" s="48" t="n">
         <v>44739.99853</v>
@@ -2732,16 +2863,21 @@
         <v>57300.51397000001</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>151683.70832</v>
+        <v>151713.21031</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>97814.34637999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>97864.79216</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>117336.585</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>25289.70861</v>
@@ -2753,16 +2889,16 @@
         <v>126365.39177</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>34256.96881</v>
+        <v>34256.96881000001</v>
       </c>
       <c r="G51" s="47" t="n">
         <v>59178.09668</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>75412.44120999999</v>
+        <v>75412.72121999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>42627.18593</v>
+        <v>71317.14463</v>
       </c>
       <c r="J51" s="47" t="n">
         <v>138226.65545</v>
@@ -2771,16 +2907,21 @@
         <v>85976.01246</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>356320.9325100001</v>
+        <v>356410.79264</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>221173.60129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>221234.63107</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>316865.487</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>6231.13003</v>
@@ -2801,7 +2942,7 @@
         <v>4886.56633</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>6888.63689</v>
+        <v>6940.12612</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>7270.11369</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>18580.94669</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>20906.125</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2698.95923</v>
@@ -2840,7 +2986,7 @@
         <v>7196.21181</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4371.853690000001</v>
+        <v>9200.72933</v>
       </c>
       <c r="J53" s="48" t="n">
         <v>8804.51345</v>
@@ -2849,16 +2995,21 @@
         <v>11559.40681</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>15622.71608</v>
+        <v>15623.0154</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>25294.32603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>25294.51075</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>21934.859</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>16359.61935</v>
@@ -2873,13 +3024,13 @@
         <v>27175.8894</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>51017.14235000001</v>
+        <v>51017.14234999999</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>63329.66307</v>
+        <v>63329.94308</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>31366.69535</v>
+        <v>55176.28918</v>
       </c>
       <c r="J54" s="48" t="n">
         <v>122152.02831</v>
@@ -2888,19 +3039,24 @@
         <v>65314.15041999999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>323933.82991</v>
+        <v>324023.39072</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>177298.32857</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>177359.17363</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>274024.503</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>313989.4903100001</v>
+        <v>313989.49031</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>323592.21139</v>
@@ -2915,28 +3071,33 @@
         <v>197627.27895</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>517323.92262</v>
+        <v>517230.4523</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>403828.13372</v>
+        <v>611253.09089</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>861121.7631900001</v>
+        <v>861121.7631999999</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1520730.37451</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>2751755.71354</v>
+        <v>2751059.72523</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4762012.696730001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4762566.23218</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>5520200.793</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>13067.8468</v>
@@ -2957,31 +3118,36 @@
         <v>19453.19523</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>27264.9292</v>
+        <v>38111.50526999999</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>30848.89144</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>36960.77052</v>
+        <v>36960.77052000001</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>77120.23430000001</v>
+        <v>77738.7365</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>66859.72853000001</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>67013.02282</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>114140.143</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>300921.64351</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>311097.2077199999</v>
+        <v>311097.20772</v>
       </c>
       <c r="E57" s="47" t="n">
         <v>179202.69629</v>
@@ -2993,25 +3159,28 @@
         <v>185349.59717</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>497870.72739</v>
+        <v>497777.25707</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>376563.20452</v>
+        <v>573141.58562</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>830272.8717499999</v>
+        <v>830272.87176</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1483769.60399</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>2674635.47924</v>
+        <v>2673320.98873</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>4695152.9682</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>4695553.20936</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>5406060.65</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>195</v>
@@ -3047,25 +3219,28 @@
         <v>269</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>357</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>437</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>